--- a/biology/Botanique/Cynometra_cauliflora/Cynometra_cauliflora.xlsx
+++ b/biology/Botanique/Cynometra_cauliflora/Cynometra_cauliflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Nam-nam ou Namu-Namu ou Cynometra cauliflora est une espèce d'arbre tropical de famille des Caesalpiniaceae, ou des Fabaceae selon la classification phylogénétique.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-C'est un arbre cultivé dans les jardins et que l'on ne connaît pas à l'état naturel[2].</t>
+C'est un arbre cultivé dans les jardins et que l'on ne connaît pas à l'état naturel.</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Fruits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nam-nam fructifie à la saison des pluies, pendant la mousson. Les fruits de Cynometra cauliflora ont la particularité de pousser directement sur le tronc. Ce sont des fruits acides. Ils peuvent être consommés crus, mais on les mange de préférence frits.
 			Cynometra cauliflora Illustration de Berthe Hoola van Nooten (1817-1892)
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Natif:Malaisie - Indonésie.
 Introduit: Fidji, Sri Lanka, Tanzanie.</t>
